--- a/create cards for OZON WB XLS/add.xlsx
+++ b/create cards for OZON WB XLS/add.xlsx
@@ -2393,8 +2393,8 @@
   </sheetPr>
   <dimension ref="A1:BS84"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BY9" activeCellId="0" sqref="BY9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AJ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AM9" activeCellId="0" sqref="AM9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
